--- a/Zazacası olmayan gereken kelimeler.xlsx
+++ b/Zazacası olmayan gereken kelimeler.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Sıra No</t>
   </si>
@@ -100,6 +100,51 @@
   </si>
   <si>
     <t>Dikkat etmek</t>
+  </si>
+  <si>
+    <t>aşnawıtış (!)</t>
+  </si>
+  <si>
+    <t>vari biyayış (!)</t>
+  </si>
+  <si>
+    <t>beni işitiyor/duyuyor musun? (!)</t>
+  </si>
+  <si>
+    <t>tiyé mı aşnawené.(!)</t>
+  </si>
+  <si>
+    <t>mase awdı vari beno.(!)</t>
+  </si>
+  <si>
+    <t>veşi(!)</t>
+  </si>
+  <si>
+    <t>he ya (!)</t>
+  </si>
+  <si>
+    <t>he ya tı şıré uca kar qedyeno.(!)</t>
+  </si>
+  <si>
+    <t>Ez rojo ini ella daya.(!)
+Kavıréma vızér şew za.(!)</t>
+  </si>
+  <si>
+    <t>Cuma günü doğmuşum.(!)
+Kuzumuz dün gece doğdu.(!)</t>
+  </si>
+  <si>
+    <t>İnsan için; Ella dayen, (!)
+Hayvan için; Zayen(!)</t>
+  </si>
+  <si>
+    <t>balé xu dayış(!)</t>
+  </si>
+  <si>
+    <t>işine dikat ediyor musun?(!)</t>
+  </si>
+  <si>
+    <t>tiyé balé xu dané karéxu.(!)</t>
   </si>
 </sst>
 </file>
@@ -157,17 +202,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,29 +520,29 @@
   <dimension ref="A2:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -506,10 +554,10 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -533,9 +581,15 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -544,11 +598,15 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -581,7 +639,9 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
@@ -644,11 +704,15 @@
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -661,16 +725,22 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -679,9 +749,15 @@
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
